--- a/biology/Botanique/Caragana_argenté/Caragana_argenté.xlsx
+++ b/biology/Botanique/Caragana_argenté/Caragana_argenté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caragana_argent%C3%A9</t>
+          <t>Caragana_argenté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Halimodendron halodendron, l'halimodendron argenté, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire d'Asie. C'est l'unique espèce acceptée du genre Halimodendron (genre monotypique).
 Ce sont des arbustes ou arbrisseaux à feuilles caduques, pouvant atteindre de 50 cm à 2 mètres de haut. L'espèce est parfois cultivée comme plante ornementale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caragana_argent%C3%A9</t>
+          <t>Caragana_argenté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle de Halimodendron halodendron s'étend dans les régions tempérées d'Asie : Chine (Gansu, Mongolie-Intérieure, Xinjiang), en Asie centrale (Afghanistan, Kazakhstan, Kirghizistan, Ouzbékistan, Tadjikistan, Turkménistan), ainsi qu'en Turquie et Transcaucasie, Russie méridionale, Iran, Mongolie, Pakistan .
-L'espèce a été introduite plus largement en Russie européenne, Crimée, Nord du Caucase, Ukraine et Sibérie occidentale[3],[4].
-Cette plante se rencontre sur des sables et sols salins, le long des cours d'eau et dans les forêts (plante halophile)[4].
+L'espèce a été introduite plus largement en Russie européenne, Crimée, Nord du Caucase, Ukraine et Sibérie occidentale,.
+Cette plante se rencontre sur des sables et sols salins, le long des cours d'eau et dans les forêts (plante halophile).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Caragana_argent%C3%A9</t>
+          <t>Caragana_argenté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (14 septembre 2015)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (14 septembre 2015) :
 Halimodendron halodendron var. albiflorum (Kar. &amp; Kir.)Prjech.
 Halimodendron halodendron var. halodendron</t>
         </is>
